--- a/BackTest/2019-10-29 BackTest REP.xlsx
+++ b/BackTest/2019-10-29 BackTest REP.xlsx
@@ -3041,13 +3041,17 @@
         <v>10421</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>10390</v>
+      </c>
+      <c r="K76" t="n">
+        <v>10390</v>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
@@ -3076,14 +3080,22 @@
         <v>10419</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>10390</v>
+      </c>
+      <c r="K77" t="n">
+        <v>10390</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3111,14 +3123,22 @@
         <v>10413</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>10350</v>
+      </c>
+      <c r="K78" t="n">
+        <v>10390</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3146,14 +3166,22 @@
         <v>10408.5</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>10370</v>
+      </c>
+      <c r="K79" t="n">
+        <v>10390</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3181,14 +3209,22 @@
         <v>10400.5</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K80" t="n">
+        <v>10390</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3216,14 +3252,22 @@
         <v>10399.5</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>10320</v>
+      </c>
+      <c r="K81" t="n">
+        <v>10390</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3251,14 +3295,22 @@
         <v>10399.5</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>10300</v>
+      </c>
+      <c r="K82" t="n">
+        <v>10390</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3286,14 +3338,22 @@
         <v>10387.5</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>10310</v>
+      </c>
+      <c r="K83" t="n">
+        <v>10390</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3321,14 +3381,22 @@
         <v>10374</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>10210</v>
+      </c>
+      <c r="K84" t="n">
+        <v>10390</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3356,14 +3424,22 @@
         <v>10361</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>10220</v>
+      </c>
+      <c r="K85" t="n">
+        <v>10390</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3399,10 +3475,12 @@
       <c r="J86" t="n">
         <v>10230</v>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>10390</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -3438,9 +3516,11 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>10230</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+        <v>10220</v>
+      </c>
+      <c r="K87" t="n">
+        <v>10390</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3479,9 +3559,11 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>10220</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
+        <v>10230</v>
+      </c>
+      <c r="K88" t="n">
+        <v>10390</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3522,7 +3604,9 @@
       <c r="J89" t="n">
         <v>10220</v>
       </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>10390</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3563,7 +3647,9 @@
       <c r="J90" t="n">
         <v>10220</v>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>10390</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3602,9 +3688,11 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>10210</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
+        <v>10290</v>
+      </c>
+      <c r="K91" t="n">
+        <v>10390</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3643,9 +3731,11 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>10270</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
+        <v>10300</v>
+      </c>
+      <c r="K92" t="n">
+        <v>10390</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3684,9 +3774,11 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>10280</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
+        <v>10270</v>
+      </c>
+      <c r="K93" t="n">
+        <v>10390</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3719,15 +3811,15 @@
         <v>10277.5</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>10280</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>10390</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3760,15 +3852,15 @@
         <v>10276</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>10300</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>10390</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3801,15 +3893,15 @@
         <v>10272.5</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>10320</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>10390</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3842,15 +3934,15 @@
         <v>10268.5</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>10280</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>10390</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3883,15 +3975,15 @@
         <v>10265</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>10280</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>10390</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3924,15 +4016,15 @@
         <v>10262</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>10280</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>10390</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3965,15 +4057,15 @@
         <v>10258.5</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>10250</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>10390</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4006,15 +4098,15 @@
         <v>10257</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>10270</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>10390</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4047,15 +4139,15 @@
         <v>10256.5</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>10300</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>10390</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4088,15 +4180,15 @@
         <v>10260</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>10320</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>10390</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4129,15 +4221,15 @@
         <v>10266</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>10330</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>10390</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4170,15 +4262,15 @@
         <v>10269</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>10290</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>10390</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4211,15 +4303,15 @@
         <v>10275</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>10350</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>10390</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4252,15 +4344,15 @@
         <v>10282</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>10370</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>10390</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4293,15 +4385,15 @@
         <v>10285</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>10280</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>10390</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4334,15 +4426,15 @@
         <v>10287.5</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>10270</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>10390</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4375,15 +4467,15 @@
         <v>10291.5</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>10300</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>10390</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4416,15 +4508,15 @@
         <v>10299.5</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>10370</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>10390</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4457,15 +4549,15 @@
         <v>10304.5</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>10370</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>10390</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4498,15 +4590,15 @@
         <v>10309.5</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>10380</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>10390</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4539,15 +4631,15 @@
         <v>10311</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>10310</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>10390</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4580,15 +4672,15 @@
         <v>10311.5</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>10310</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>10390</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4621,15 +4713,15 @@
         <v>10314.5</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>10380</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>10390</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4662,15 +4754,15 @@
         <v>10319.5</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>10380</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>10390</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4703,15 +4795,15 @@
         <v>10322.5</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>10340</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>10390</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4744,15 +4836,15 @@
         <v>10325.5</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>10340</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>10390</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4785,15 +4877,15 @@
         <v>10331</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>10360</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>10390</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4826,15 +4918,15 @@
         <v>10334</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>10330</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>10390</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4867,15 +4959,15 @@
         <v>10336</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>10340</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>10390</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4908,15 +5000,15 @@
         <v>10331</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>10220</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>10390</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4949,15 +5041,15 @@
         <v>10325.5</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>10220</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>10390</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4990,15 +5082,15 @@
         <v>10322.5</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>10230</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>10390</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5031,15 +5123,15 @@
         <v>10315.5</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>10210</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>10390</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5072,15 +5164,15 @@
         <v>10310.5</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>10270</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>10390</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5113,15 +5205,15 @@
         <v>10307</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>10210</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>10390</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5154,15 +5246,15 @@
         <v>10303.5</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>10200</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>10390</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5195,15 +5287,15 @@
         <v>10298.5</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>10200</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>10390</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5236,15 +5328,15 @@
         <v>10291.5</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>10230</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>10390</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5277,15 +5369,15 @@
         <v>10284</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>10220</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>10390</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5318,15 +5410,15 @@
         <v>10277.5</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>10250</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>10390</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5359,15 +5451,15 @@
         <v>10275</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>10260</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>10390</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5400,15 +5492,15 @@
         <v>10273</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>10270</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>10390</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5441,15 +5533,15 @@
         <v>10270.5</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>10330</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>10390</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5482,15 +5574,15 @@
         <v>10265</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>10270</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>10390</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5523,15 +5615,15 @@
         <v>10266</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>10360</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>10390</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5564,15 +5656,15 @@
         <v>10267</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>10360</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>10390</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5605,15 +5697,15 @@
         <v>10267</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>10360</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>10390</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5646,15 +5738,15 @@
         <v>10268.5</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>10360</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>10390</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5687,15 +5779,15 @@
         <v>10270</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>10370</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>10390</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5728,15 +5820,15 @@
         <v>10276.5</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>10350</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>10390</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5769,15 +5861,15 @@
         <v>10290.5</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>10500</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>10390</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5810,15 +5902,15 @@
         <v>10297</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>10360</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>10390</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5851,15 +5943,15 @@
         <v>10304</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>10350</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>10390</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5892,15 +5984,15 @@
         <v>10308.5</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>10360</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>10390</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5933,15 +6025,15 @@
         <v>10316.5</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>10370</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>10390</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5974,15 +6066,15 @@
         <v>10324</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>10350</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>10390</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6015,15 +6107,15 @@
         <v>10337.5</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>10470</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>10390</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6056,15 +6148,15 @@
         <v>10348.5</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>10450</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>10390</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6097,15 +6189,15 @@
         <v>10353</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>10310</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>10390</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6138,15 +6230,15 @@
         <v>10356</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>10310</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>10390</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6179,15 +6271,15 @@
         <v>10358.5</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>10310</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>10390</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6220,15 +6312,15 @@
         <v>10366</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>10420</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>10390</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6261,15 +6353,15 @@
         <v>10368.5</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>10380</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>10390</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6302,15 +6394,15 @@
         <v>10372.5</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>10350</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>10390</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6343,15 +6435,15 @@
         <v>10372</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>10350</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>10390</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6384,15 +6476,15 @@
         <v>10370.5</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>10330</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>10390</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6425,15 +6517,15 @@
         <v>10370</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>10350</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>10390</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6466,15 +6558,15 @@
         <v>10372</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>10400</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>10390</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6507,15 +6599,15 @@
         <v>10374.5</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>10420</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>10390</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6548,15 +6640,15 @@
         <v>10381.5</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>10490</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>10390</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6589,15 +6681,15 @@
         <v>10379</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>10450</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>10390</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6630,15 +6722,15 @@
         <v>10386.5</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>10510</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>10390</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6677,7 +6769,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>10390</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6716,7 +6810,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>10390</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6755,7 +6851,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>10390</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6794,7 +6892,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>10390</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6833,7 +6933,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>10390</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6872,7 +6974,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>10390</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6911,7 +7015,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>10390</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6950,7 +7056,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>10390</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6989,7 +7097,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>10390</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7028,7 +7138,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>10390</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7067,7 +7179,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>10390</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7106,7 +7220,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>10390</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7145,7 +7261,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>10390</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7184,7 +7302,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>10390</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7223,7 +7343,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>10390</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7262,7 +7384,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>10390</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7301,7 +7425,9 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>10390</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7340,7 +7466,9 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>10390</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7379,7 +7507,9 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>10390</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7418,7 +7548,9 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>10390</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7457,7 +7589,9 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>10390</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7496,7 +7630,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>10390</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7535,7 +7671,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>10390</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7574,7 +7712,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>10390</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7613,7 +7753,9 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>10390</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7652,7 +7794,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>10390</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7691,7 +7835,9 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>10390</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7730,7 +7876,9 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>10390</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7769,7 +7917,9 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>10390</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7808,7 +7958,9 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>10390</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7847,7 +7999,9 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>10390</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7886,7 +8040,9 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>10390</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7925,7 +8081,9 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>10390</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7964,7 +8122,9 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>10390</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8003,7 +8163,9 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>10390</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8042,7 +8204,9 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>10390</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8081,7 +8245,9 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>10390</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8120,7 +8286,9 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>10390</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8159,7 +8327,9 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>10390</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8198,7 +8368,9 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>10390</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8237,7 +8409,9 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>10390</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8276,7 +8450,9 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>10390</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8315,7 +8491,9 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>10390</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8354,7 +8532,9 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>10390</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8393,7 +8573,9 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>10390</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8432,7 +8614,9 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>10390</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8471,7 +8655,9 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>10390</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8510,7 +8696,9 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>10390</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8549,7 +8737,9 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>10390</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8588,7 +8778,9 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>10390</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8627,7 +8819,9 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>10390</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8666,7 +8860,9 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>10390</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8705,7 +8901,9 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>10390</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8744,7 +8942,9 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>10390</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8783,7 +8983,9 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>10390</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8822,7 +9024,9 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>10390</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8861,7 +9065,9 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>10390</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8900,7 +9106,9 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>10390</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8939,7 +9147,9 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>10390</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8978,7 +9188,9 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>10390</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9017,7 +9229,9 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>10390</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9056,7 +9270,9 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>10390</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9095,7 +9311,9 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>10390</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9134,7 +9352,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>10390</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9173,7 +9393,9 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>10390</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9212,7 +9434,9 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>10390</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9251,7 +9475,9 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>10390</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9290,7 +9516,9 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>10390</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9329,7 +9557,9 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>10390</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9368,7 +9598,9 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>10390</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9407,7 +9639,9 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>10390</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9446,7 +9680,9 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>10390</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9485,7 +9721,9 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>10390</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9524,7 +9762,9 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>10390</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9563,7 +9803,9 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>10390</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9602,7 +9844,9 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>10390</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9641,7 +9885,9 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>10390</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9680,7 +9926,9 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>10390</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9719,7 +9967,9 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>10390</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9758,7 +10008,9 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>10390</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9797,7 +10049,9 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>10390</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9836,7 +10090,9 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>10390</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9875,7 +10131,9 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>10390</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9914,7 +10172,9 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>10390</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9953,7 +10213,9 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>10390</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9992,7 +10254,9 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>10390</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10031,7 +10295,9 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>10390</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10070,7 +10336,9 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>10390</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10109,7 +10377,9 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>10390</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10148,7 +10418,9 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>10390</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10187,7 +10459,9 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>10390</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10226,7 +10500,9 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>10390</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10265,7 +10541,9 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>10390</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10304,7 +10582,9 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>10390</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10343,7 +10623,9 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>10390</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10382,7 +10664,9 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>10390</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10421,7 +10705,9 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>10390</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10460,7 +10746,9 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>10390</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10499,7 +10787,9 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>10390</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10538,7 +10828,9 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>10390</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10577,7 +10869,9 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>10390</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10616,7 +10910,9 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>10390</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10655,7 +10951,9 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>10390</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10694,7 +10992,9 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>10390</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10733,7 +11033,9 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>10390</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10772,7 +11074,9 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>10390</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10811,7 +11115,9 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>10390</v>
+      </c>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10850,7 +11156,9 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>10390</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10889,7 +11197,9 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>10390</v>
+      </c>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10928,7 +11238,9 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>10390</v>
+      </c>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10967,7 +11279,9 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>10390</v>
+      </c>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11006,7 +11320,9 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>10390</v>
+      </c>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11045,7 +11361,9 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>10390</v>
+      </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11084,7 +11402,9 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>10390</v>
+      </c>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11123,7 +11443,9 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>10390</v>
+      </c>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11162,7 +11484,9 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>10390</v>
+      </c>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11201,7 +11525,9 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>10390</v>
+      </c>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11240,7 +11566,9 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>10390</v>
+      </c>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11279,7 +11607,9 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>10390</v>
+      </c>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11318,7 +11648,9 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>10390</v>
+      </c>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11357,7 +11689,9 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>10390</v>
+      </c>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11396,7 +11730,9 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>10390</v>
+      </c>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11435,7 +11771,9 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>10390</v>
+      </c>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11474,7 +11812,9 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>10390</v>
+      </c>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11513,7 +11853,9 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>10390</v>
+      </c>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11552,7 +11894,9 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>10390</v>
+      </c>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11591,7 +11935,9 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>10390</v>
+      </c>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11630,7 +11976,9 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>10390</v>
+      </c>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11669,7 +12017,9 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>10390</v>
+      </c>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11708,7 +12058,9 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>10390</v>
+      </c>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11747,7 +12099,9 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>10390</v>
+      </c>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11786,7 +12140,9 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>10390</v>
+      </c>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11819,13 +12175,17 @@
         <v>10435</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>10420</v>
+      </c>
+      <c r="K298" t="n">
+        <v>10390</v>
+      </c>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11858,13 +12218,17 @@
         <v>10429</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>10420</v>
+      </c>
+      <c r="K299" t="n">
+        <v>10390</v>
+      </c>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11897,13 +12261,17 @@
         <v>10429</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>10420</v>
+      </c>
+      <c r="K300" t="n">
+        <v>10390</v>
+      </c>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11936,13 +12304,17 @@
         <v>10425.5</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>10360</v>
+      </c>
+      <c r="K301" t="n">
+        <v>10390</v>
+      </c>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11975,13 +12347,17 @@
         <v>10422</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>10420</v>
+      </c>
+      <c r="K302" t="n">
+        <v>10390</v>
+      </c>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12014,13 +12390,17 @@
         <v>10417</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>10440</v>
+      </c>
+      <c r="K303" t="n">
+        <v>10390</v>
+      </c>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12053,13 +12433,17 @@
         <v>10416</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>10410</v>
+      </c>
+      <c r="K304" t="n">
+        <v>10390</v>
+      </c>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12092,13 +12476,17 @@
         <v>10418</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>10410</v>
+      </c>
+      <c r="K305" t="n">
+        <v>10390</v>
+      </c>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12131,13 +12519,17 @@
         <v>10410.5</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>10380</v>
+      </c>
+      <c r="K306" t="n">
+        <v>10390</v>
+      </c>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12170,13 +12562,17 @@
         <v>10405</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>10410</v>
+      </c>
+      <c r="K307" t="n">
+        <v>10390</v>
+      </c>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12209,13 +12605,17 @@
         <v>10409.5</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>10450</v>
+      </c>
+      <c r="K308" t="n">
+        <v>10390</v>
+      </c>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12254,7 +12654,9 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>10390</v>
+      </c>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12293,7 +12695,9 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>10390</v>
+      </c>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12332,7 +12736,9 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>10390</v>
+      </c>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12371,7 +12777,9 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>10390</v>
+      </c>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12410,7 +12818,9 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>10390</v>
+      </c>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12449,7 +12859,9 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>10390</v>
+      </c>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12488,7 +12900,9 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>10390</v>
+      </c>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12527,7 +12941,9 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>10390</v>
+      </c>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12566,7 +12982,9 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>10390</v>
+      </c>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12605,7 +13023,9 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>10390</v>
+      </c>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12644,7 +13064,9 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>10390</v>
+      </c>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12683,7 +13105,9 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>10390</v>
+      </c>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12722,7 +13146,9 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>10390</v>
+      </c>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12761,7 +13187,9 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>10390</v>
+      </c>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12800,7 +13228,9 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>10390</v>
+      </c>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12839,7 +13269,9 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>10390</v>
+      </c>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12878,7 +13310,9 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>10390</v>
+      </c>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12917,7 +13351,9 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>10390</v>
+      </c>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12956,7 +13392,9 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>10390</v>
+      </c>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12995,7 +13433,9 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>10390</v>
+      </c>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13034,7 +13474,9 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>10390</v>
+      </c>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13073,7 +13515,9 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>10390</v>
+      </c>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13112,7 +13556,9 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>10390</v>
+      </c>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13151,7 +13597,9 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>10390</v>
+      </c>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13190,7 +13638,9 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>10390</v>
+      </c>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13229,7 +13679,9 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>10390</v>
+      </c>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13268,7 +13720,9 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>10390</v>
+      </c>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13307,7 +13761,9 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>10390</v>
+      </c>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13346,7 +13802,9 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>10390</v>
+      </c>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13385,7 +13843,9 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>10390</v>
+      </c>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13424,7 +13884,9 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>10390</v>
+      </c>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13463,7 +13925,9 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>10390</v>
+      </c>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13502,7 +13966,9 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>10390</v>
+      </c>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13541,7 +14007,9 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>10390</v>
+      </c>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13580,7 +14048,9 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>10390</v>
+      </c>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13619,7 +14089,9 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>10390</v>
+      </c>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13658,7 +14130,9 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>10390</v>
+      </c>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13697,7 +14171,9 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>10390</v>
+      </c>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13736,7 +14212,9 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>10390</v>
+      </c>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13775,7 +14253,9 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>10390</v>
+      </c>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13811,17 +14291,19 @@
         <v>0</v>
       </c>
       <c r="I349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>10390</v>
+      </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>1</v>
+        <v>1.061410009624639</v>
       </c>
     </row>
     <row r="350">
@@ -13854,11 +14336,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13893,11 +14371,7 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13932,11 +14406,7 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13971,11 +14441,7 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -14010,11 +14476,7 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -14049,11 +14511,7 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -14088,11 +14546,7 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -14127,11 +14581,7 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -14166,11 +14616,7 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -14205,11 +14651,7 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -14244,11 +14686,7 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -14283,11 +14721,7 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L361" t="inlineStr"/>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -14322,11 +14756,7 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -14361,11 +14791,7 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L363" t="inlineStr"/>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -14400,11 +14826,7 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L364" t="inlineStr"/>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -14439,11 +14861,7 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L365" t="inlineStr"/>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -14474,15 +14892,11 @@
         <v>0</v>
       </c>
       <c r="I366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L366" t="inlineStr"/>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14513,15 +14927,11 @@
         <v>0</v>
       </c>
       <c r="I367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L367" t="inlineStr"/>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14556,12 +14966,10 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M368" t="inlineStr"/>
+      <c r="L368" t="inlineStr"/>
+      <c r="M368" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">

--- a/BackTest/2019-10-29 BackTest REP.xlsx
+++ b/BackTest/2019-10-29 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>37526.61301886508</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>37690.40941886508</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10030</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>38046.17921886508</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10070</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,15 +562,17 @@
         <v>38082.69161886508</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>10090</v>
       </c>
-      <c r="J5" t="n">
-        <v>10090</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,15 +601,15 @@
         <v>38082.69161886508</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>10090</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10100</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -626,15 +640,15 @@
         <v>38082.69161886508</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>10090</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10100</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -665,15 +679,17 @@
         <v>38072.78081609005</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>10100</v>
       </c>
-      <c r="J8" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -702,15 +718,15 @@
         <v>38072.78081609005</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>10100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10090</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -741,15 +757,15 @@
         <v>38029.61541609006</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>10100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10090</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -780,12 +796,12 @@
         <v>38029.61541609006</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>10100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10060</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -819,12 +835,12 @@
         <v>38034.61541609006</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>10100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10060</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -861,9 +877,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -897,12 +911,12 @@
         <v>38034.61541609006</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>10100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10090</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -936,12 +950,12 @@
         <v>38034.61541609006</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>10100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10090</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -978,9 +992,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1014,14 +1026,10 @@
         <v>37727.82761609006</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>10080</v>
-      </c>
-      <c r="J17" t="n">
-        <v>10100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1055,14 +1063,10 @@
         <v>37938.65161331503</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>10080</v>
-      </c>
-      <c r="J18" t="n">
-        <v>10100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1096,14 +1100,10 @@
         <v>38029.95261331503</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10090</v>
-      </c>
-      <c r="J19" t="n">
-        <v>10100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1137,14 +1137,10 @@
         <v>37880.41941331503</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10130</v>
-      </c>
-      <c r="J20" t="n">
-        <v>10100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1181,9 +1177,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1220,9 +1214,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1259,9 +1251,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1298,9 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1337,9 +1325,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1376,9 +1362,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1415,9 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1454,9 +1436,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1493,9 +1473,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1529,14 +1507,10 @@
         <v>39311.06928194249</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>10220</v>
-      </c>
-      <c r="J30" t="n">
-        <v>10100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1570,14 +1544,10 @@
         <v>39184.31818194249</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>10290</v>
-      </c>
-      <c r="J31" t="n">
-        <v>10100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1611,14 +1581,10 @@
         <v>39622.32188194249</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>10280</v>
-      </c>
-      <c r="J32" t="n">
-        <v>10100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1652,14 +1618,10 @@
         <v>39915.08638194248</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>10320</v>
-      </c>
-      <c r="J33" t="n">
-        <v>10100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1693,14 +1655,10 @@
         <v>39942.31638194249</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>10400</v>
-      </c>
-      <c r="J34" t="n">
-        <v>10100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1734,14 +1692,10 @@
         <v>39847.90378194248</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>10410</v>
-      </c>
-      <c r="J35" t="n">
-        <v>10100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1775,14 +1729,10 @@
         <v>39856.68878194249</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>10350</v>
-      </c>
-      <c r="J36" t="n">
-        <v>10100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1816,14 +1766,10 @@
         <v>40149.55298194248</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>10370</v>
-      </c>
-      <c r="J37" t="n">
-        <v>10100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1857,14 +1803,10 @@
         <v>40149.55298194248</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>10400</v>
-      </c>
-      <c r="J38" t="n">
-        <v>10100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1898,14 +1840,10 @@
         <v>40779.22027842871</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>10400</v>
-      </c>
-      <c r="J39" t="n">
-        <v>10100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1939,14 +1877,10 @@
         <v>40779.22027842871</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>10520</v>
-      </c>
-      <c r="J40" t="n">
-        <v>10100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1980,14 +1914,10 @@
         <v>41432.13657842871</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>10520</v>
-      </c>
-      <c r="J41" t="n">
-        <v>10100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2021,14 +1951,10 @@
         <v>41878.64717842871</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>10560</v>
-      </c>
-      <c r="J42" t="n">
-        <v>10100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2062,14 +1988,10 @@
         <v>41878.64717842871</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>10580</v>
-      </c>
-      <c r="J43" t="n">
-        <v>10100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2103,14 +2025,10 @@
         <v>42962.84307842871</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>10580</v>
-      </c>
-      <c r="J44" t="n">
-        <v>10100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2147,9 +2065,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2186,9 +2102,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2225,9 +2139,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2264,9 +2176,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2303,9 +2213,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2342,9 +2250,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2381,9 +2287,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2420,9 +2324,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2459,9 +2361,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2498,9 +2398,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2537,9 +2435,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2576,9 +2472,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2615,9 +2509,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2654,9 +2546,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2693,9 +2583,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2732,9 +2620,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2771,9 +2657,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2810,9 +2694,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2849,9 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2888,9 +2768,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2927,9 +2805,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2966,9 +2842,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3005,9 +2879,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3044,9 +2916,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3083,9 +2953,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3122,9 +2990,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3161,9 +3027,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3200,9 +3064,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3239,9 +3101,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3278,9 +3138,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3317,9 +3175,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3356,9 +3212,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3395,9 +3249,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3434,9 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3473,9 +3323,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3512,9 +3360,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3551,9 +3397,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3590,9 +3434,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3629,9 +3471,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3668,9 +3508,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3707,9 +3545,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3746,9 +3582,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3785,9 +3619,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3824,9 +3656,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3863,9 +3693,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3902,9 +3730,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3941,9 +3767,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3980,9 +3804,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4019,9 +3841,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4058,9 +3878,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4094,23 +3912,19 @@
         <v>42905.73983961599</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.07519801980198</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.010989010989011</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4135,11 +3949,15 @@
         <v>42905.73983961599</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4168,11 +3986,15 @@
         <v>42599.20713961599</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4205,7 +4027,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4238,7 +4064,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4271,7 +4101,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4304,7 +4138,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4337,7 +4175,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4370,7 +4212,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4403,7 +4249,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4436,7 +4286,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4469,7 +4323,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4502,7 +4360,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4535,7 +4397,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4568,7 +4434,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4601,7 +4471,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4634,7 +4508,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4667,7 +4545,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4700,7 +4582,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4733,7 +4619,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4766,7 +4656,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4799,7 +4693,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4832,7 +4730,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4865,7 +4767,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4898,7 +4804,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4931,7 +4841,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4964,7 +4878,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4997,7 +4915,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5030,7 +4952,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5063,7 +4989,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5096,7 +5026,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5129,7 +5063,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5162,7 +5100,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5195,7 +5137,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5228,7 +5174,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5261,7 +5211,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5294,7 +5248,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5327,7 +5285,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5360,7 +5322,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5393,7 +5359,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5426,7 +5396,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5459,7 +5433,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5492,7 +5470,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5525,7 +5507,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5558,7 +5544,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5591,7 +5581,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5624,7 +5618,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5657,7 +5655,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5690,7 +5692,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5723,7 +5729,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5756,7 +5766,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5789,7 +5803,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5822,7 +5840,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5855,7 +5877,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5888,7 +5914,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5921,7 +5951,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5954,7 +5988,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5987,7 +6025,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6020,7 +6062,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6053,7 +6099,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6086,7 +6136,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6119,7 +6173,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6152,7 +6210,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6185,7 +6247,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6218,7 +6284,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6251,7 +6321,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6284,7 +6358,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6317,7 +6395,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6350,7 +6432,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6383,7 +6469,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6416,7 +6506,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6449,7 +6543,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6482,7 +6580,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6515,7 +6617,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6548,7 +6654,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6581,7 +6691,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6614,7 +6728,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6647,7 +6765,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6680,7 +6802,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6713,7 +6839,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6746,7 +6876,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6779,7 +6913,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6812,7 +6950,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6845,7 +6987,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6878,7 +7024,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6911,7 +7061,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6944,7 +7098,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6977,7 +7135,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7010,7 +7172,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7043,7 +7209,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7076,7 +7246,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7109,7 +7283,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7142,7 +7320,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7175,7 +7357,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7208,7 +7394,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7241,7 +7431,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7274,7 +7468,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7307,7 +7505,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7340,7 +7542,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7373,7 +7579,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7406,7 +7616,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7439,7 +7653,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7472,7 +7690,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7505,7 +7727,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7538,7 +7764,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7571,7 +7801,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7604,7 +7838,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7637,7 +7875,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7670,7 +7912,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7703,7 +7949,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7736,7 +7986,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7769,7 +8023,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7802,7 +8060,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7835,7 +8097,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7868,7 +8134,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7901,7 +8171,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7934,7 +8208,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7967,7 +8245,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8000,7 +8282,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8033,7 +8319,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8066,7 +8356,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8099,7 +8393,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8132,7 +8430,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8165,7 +8467,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8198,7 +8504,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8231,7 +8541,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8264,7 +8578,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8297,7 +8615,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8330,7 +8652,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8363,7 +8689,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8396,7 +8726,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8429,7 +8763,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8462,7 +8800,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8495,7 +8837,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8528,7 +8874,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8561,7 +8911,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8594,7 +8948,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8627,7 +8985,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8660,7 +9022,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8693,7 +9059,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8726,7 +9096,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8759,7 +9133,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8792,7 +9170,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8825,7 +9207,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8858,7 +9244,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8891,7 +9281,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8924,7 +9318,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8957,7 +9355,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8990,7 +9392,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9023,7 +9429,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9056,7 +9466,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9089,7 +9503,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9122,7 +9540,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9155,7 +9577,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9188,7 +9614,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9221,7 +9651,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9254,7 +9688,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9287,7 +9725,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9320,7 +9762,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9353,7 +9799,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9386,7 +9836,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9419,7 +9873,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9452,7 +9910,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9485,7 +9947,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9518,7 +9984,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9551,7 +10021,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9584,7 +10058,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9617,7 +10095,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9650,7 +10132,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9683,7 +10169,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9716,7 +10206,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9749,7 +10243,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9782,7 +10280,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9815,7 +10317,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9848,7 +10354,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9881,7 +10391,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9914,7 +10428,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9947,7 +10465,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9980,7 +10502,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10013,7 +10539,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10046,7 +10576,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10079,7 +10613,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10112,7 +10650,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10145,7 +10687,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10178,7 +10724,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10211,7 +10761,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10244,7 +10798,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10277,7 +10835,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10310,7 +10872,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10343,7 +10909,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10376,7 +10946,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10409,7 +10983,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10442,7 +11020,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10475,7 +11057,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10508,7 +11094,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10541,7 +11131,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10574,7 +11168,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10607,7 +11205,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10640,7 +11242,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10673,7 +11279,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10706,7 +11316,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10739,7 +11353,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10772,7 +11390,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10805,7 +11427,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10838,7 +11464,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10871,7 +11501,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10904,7 +11538,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10937,7 +11575,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10970,7 +11612,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11003,7 +11649,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11036,7 +11686,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11069,7 +11723,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11102,7 +11760,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11135,7 +11797,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11168,7 +11834,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11201,7 +11871,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11234,7 +11908,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11267,7 +11945,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11300,7 +11982,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11333,7 +12019,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11366,7 +12056,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11399,7 +12093,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11432,7 +12130,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11465,7 +12167,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11498,7 +12204,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11531,7 +12241,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11564,7 +12278,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11597,7 +12315,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11630,7 +12352,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11663,7 +12389,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11696,7 +12426,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11729,7 +12463,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11762,7 +12500,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11795,7 +12537,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11828,7 +12574,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11861,7 +12611,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11894,7 +12648,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11927,7 +12685,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11960,7 +12722,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11993,7 +12759,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12026,7 +12796,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12059,7 +12833,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12092,7 +12870,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12125,7 +12907,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12158,7 +12944,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12191,7 +12981,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12224,7 +13018,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12257,7 +13055,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12290,7 +13092,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12323,7 +13129,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12356,7 +13166,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12389,7 +13203,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12422,7 +13240,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12455,7 +13277,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12488,7 +13314,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12521,7 +13351,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12554,7 +13388,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12587,7 +13425,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12620,7 +13462,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12653,7 +13499,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12686,7 +13536,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12719,7 +13573,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12752,7 +13610,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12785,7 +13647,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12818,7 +13684,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12851,7 +13721,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12884,7 +13758,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12917,7 +13795,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12950,7 +13832,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12983,7 +13869,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13016,7 +13906,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13049,7 +13943,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13082,7 +13980,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13115,7 +14017,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13148,7 +14054,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13181,7 +14091,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13214,7 +14128,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13247,7 +14165,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13280,7 +14202,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13313,7 +14239,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13346,7 +14276,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13379,7 +14313,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13412,7 +14350,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13445,7 +14387,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13478,7 +14424,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13511,7 +14461,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13544,7 +14498,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13577,7 +14535,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13610,7 +14572,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13643,7 +14609,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13676,7 +14646,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13709,7 +14683,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13742,7 +14720,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13775,7 +14757,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13808,7 +14794,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13841,7 +14831,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13874,7 +14868,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13907,7 +14905,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13940,7 +14942,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13973,7 +14979,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14006,7 +15016,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14039,7 +15053,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14072,7 +15090,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14105,7 +15127,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14138,7 +15164,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14171,7 +15201,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14204,7 +15238,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14237,7 +15275,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14270,7 +15312,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14303,7 +15349,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14336,7 +15386,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14369,7 +15423,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14402,7 +15460,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14435,7 +15497,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14468,7 +15534,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14497,11 +15567,15 @@
         <v>47218.73607527334</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14530,11 +15604,15 @@
         <v>48086.51337527334</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14563,11 +15641,15 @@
         <v>49553.39720856777</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14596,11 +15678,15 @@
         <v>48614.77284284058</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14629,11 +15715,15 @@
         <v>47087.60710582876</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14662,11 +15752,15 @@
         <v>47708.24161214793</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14695,11 +15789,15 @@
         <v>46351.39471214793</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14728,11 +15826,15 @@
         <v>46504.72181214793</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14761,11 +15863,15 @@
         <v>46504.72181214793</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14794,11 +15900,15 @@
         <v>47090.11991214793</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14827,11 +15937,15 @@
         <v>47494.14601214793</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14860,11 +15974,15 @@
         <v>47417.34471214793</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14893,11 +16011,15 @@
         <v>47596.7913024088</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14926,11 +16048,15 @@
         <v>47596.7913024088</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14959,11 +16085,15 @@
         <v>49943.23280240881</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14992,11 +16122,15 @@
         <v>52847.59859966979</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15025,11 +16159,15 @@
         <v>54163.30119966979</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15058,11 +16196,15 @@
         <v>53457.35702678844</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15091,11 +16233,15 @@
         <v>53457.35702678844</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15124,11 +16270,15 @@
         <v>54507.65982678843</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15157,11 +16307,15 @@
         <v>53941.82267644945</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15190,14 +16344,16 @@
         <v>53664.17107441209</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
-      <c r="L431" t="n">
-        <v>1</v>
-      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L431" t="inlineStr"/>
       <c r="M431" t="inlineStr"/>
     </row>
     <row r="432">
@@ -15223,7 +16379,7 @@
         <v>52469.91137441209</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15256,7 +16412,7 @@
         <v>51176.72617441209</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15289,7 +16445,7 @@
         <v>50116.81367441209</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15322,7 +16478,7 @@
         <v>50826.92771803742</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15355,7 +16511,7 @@
         <v>52067.28368829918</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15388,7 +16544,7 @@
         <v>52340.86566276826</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15421,7 +16577,7 @@
         <v>51665.41977893335</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15454,7 +16610,7 @@
         <v>52236.52939509844</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15487,7 +16643,7 @@
         <v>52236.52939509844</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15520,7 +16676,7 @@
         <v>52897.04063630116</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15553,7 +16709,7 @@
         <v>52489.31523630115</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15586,7 +16742,7 @@
         <v>53403.25830209063</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15619,7 +16775,7 @@
         <v>54368.80130209063</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15652,7 +16808,7 @@
         <v>55151.23518359401</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15685,7 +16841,7 @@
         <v>56656.74901930829</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15718,7 +16874,7 @@
         <v>55535.40291930829</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16279,7 +17435,7 @@
         <v>50562.48311191667</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16312,7 +17468,7 @@
         <v>50541.27231191667</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16345,7 +17501,7 @@
         <v>50269.69441191667</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16378,7 +17534,7 @@
         <v>49857.75531191667</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16411,7 +17567,7 @@
         <v>49549.31361191667</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16444,7 +17600,7 @@
         <v>49615.62941191666</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16477,7 +17633,7 @@
         <v>49882.70191191667</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16510,7 +17666,7 @@
         <v>49048.70901191667</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16543,7 +17699,7 @@
         <v>49018.99321191667</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16576,7 +17732,7 @@
         <v>50041.51111191667</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16609,7 +17765,7 @@
         <v>48786.37481191667</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16642,7 +17798,7 @@
         <v>48620.14991191667</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16675,7 +17831,7 @@
         <v>48219.93521191667</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16708,7 +17864,7 @@
         <v>47165.49021191667</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16741,7 +17897,7 @@
         <v>47375.51551191667</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16774,7 +17930,7 @@
         <v>47700.94151191667</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16807,7 +17963,7 @@
         <v>47440.65861191667</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16840,7 +17996,7 @@
         <v>46315.98441191667</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16873,7 +18029,7 @@
         <v>45431.07171191667</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17203,7 +18359,7 @@
         <v>45707.04196602757</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17236,7 +18392,7 @@
         <v>46117.26666602757</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17269,7 +18425,7 @@
         <v>46083.09716602757</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17302,7 +18458,7 @@
         <v>45875.28976602757</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17335,7 +18491,7 @@
         <v>45090.00526602757</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17368,7 +18524,7 @@
         <v>44970.01526602757</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17401,7 +18557,7 @@
         <v>44983.58946602757</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18292,7 +19448,7 @@
         <v>50795.54920426873</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18325,7 +19481,7 @@
         <v>52037.93384632881</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18358,7 +19514,7 @@
         <v>51832.48424632882</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18391,7 +19547,7 @@
         <v>51628.09694632881</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18424,7 +19580,7 @@
         <v>51521.08614632882</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18457,7 +19613,7 @@
         <v>51521.08614632882</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18490,7 +19646,7 @@
         <v>51402.48698526077</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18523,7 +19679,7 @@
         <v>51380.56788526077</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18556,7 +19712,7 @@
         <v>50954.19498526077</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18589,7 +19745,7 @@
         <v>50887.59810159265</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18622,7 +19778,7 @@
         <v>51214.92500159265</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18655,7 +19811,7 @@
         <v>51123.38130159265</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18688,7 +19844,7 @@
         <v>51831.32530159265</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18721,7 +19877,7 @@
         <v>51596.26970159265</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18754,7 +19910,7 @@
         <v>50960.1276101871</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18787,7 +19943,7 @@
         <v>50285.0124101871</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18820,7 +19976,7 @@
         <v>50401.6587101871</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18853,7 +20009,7 @@
         <v>50573.92241018711</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18886,7 +20042,7 @@
         <v>50573.92241018711</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18919,7 +20075,7 @@
         <v>50566.49811018711</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18952,7 +20108,7 @@
         <v>50307.49121018711</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18985,7 +20141,7 @@
         <v>50349.73609549177</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19018,7 +20174,7 @@
         <v>50318.71889549177</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19051,7 +20207,7 @@
         <v>50433.44404971079</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19084,7 +20240,7 @@
         <v>50327.71674971079</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19117,7 +20273,7 @@
         <v>50327.71674971079</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19150,7 +20306,7 @@
         <v>50327.7267497108</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19183,7 +20339,7 @@
         <v>50422.4325747552</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19810,7 +20966,7 @@
         <v>50030.90087475521</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19843,7 +20999,7 @@
         <v>49955.27817475521</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19876,7 +21032,7 @@
         <v>50145.60067475521</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19909,7 +21065,7 @@
         <v>50124.58957475521</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19942,7 +21098,7 @@
         <v>50187.98207475521</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -24342,6 +25498,6 @@
       <c r="M708" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest REP.xlsx
+++ b/BackTest/2019-10-29 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -757,11 +757,9 @@
         <v>38029.61541609006</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -835,11 +833,9 @@
         <v>38034.61541609006</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -874,9 +870,11 @@
         <v>38034.61541609006</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10090</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -911,11 +909,9 @@
         <v>38034.61541609006</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>10090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -1914,18 +1910,16 @@
         <v>41432.13657842871</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -1951,15 +1945,11 @@
         <v>41878.64717842871</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1988,15 +1978,11 @@
         <v>41878.64717842871</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2025,15 +2011,11 @@
         <v>42962.84307842871</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2062,15 +2044,11 @@
         <v>42552.36327842871</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2099,15 +2077,11 @@
         <v>42840.99737842871</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2136,15 +2110,11 @@
         <v>42205.03467842871</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2173,15 +2143,11 @@
         <v>41938.00877842871</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2210,15 +2176,11 @@
         <v>41716.79647842871</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2247,15 +2209,11 @@
         <v>41716.79647842871</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2284,15 +2242,11 @@
         <v>41908.46137842871</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2321,15 +2275,11 @@
         <v>42279.22316310161</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2358,15 +2308,11 @@
         <v>42279.22316310161</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2395,15 +2341,11 @@
         <v>42279.22316310161</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2432,15 +2374,11 @@
         <v>42279.22316310161</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2469,15 +2407,11 @@
         <v>42259.57436310161</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2506,15 +2440,11 @@
         <v>41871.90636310161</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2543,15 +2473,11 @@
         <v>42029.29026310161</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2580,15 +2506,11 @@
         <v>42018.87146310161</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2617,15 +2539,11 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2654,15 +2572,11 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2691,15 +2605,11 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2728,15 +2638,11 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2765,15 +2671,11 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2802,15 +2704,11 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2839,15 +2737,11 @@
         <v>42183.29336310161</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2876,15 +2770,11 @@
         <v>42448.62526310161</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2913,15 +2803,11 @@
         <v>43093.08545224487</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2950,15 +2836,11 @@
         <v>44061.94595224487</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2987,15 +2869,11 @@
         <v>44309.81805224487</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3024,15 +2902,11 @@
         <v>44182.30995224488</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3061,15 +2935,11 @@
         <v>44182.30995224488</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3098,15 +2968,11 @@
         <v>44182.30995224488</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3135,15 +3001,11 @@
         <v>44305.69255224487</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3172,15 +3034,11 @@
         <v>44305.69255224487</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3209,15 +3067,11 @@
         <v>44300.39955224487</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3246,15 +3100,11 @@
         <v>44308.13485224488</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3283,15 +3133,11 @@
         <v>44916.60385224487</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3320,15 +3166,11 @@
         <v>44527.22225224487</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3357,15 +3199,11 @@
         <v>42466.24155224487</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3394,15 +3232,11 @@
         <v>42602.46665224488</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3431,15 +3265,11 @@
         <v>42405.27635224487</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3468,15 +3298,11 @@
         <v>42462.19625224487</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3505,15 +3331,11 @@
         <v>42288.4295632736</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3542,15 +3364,11 @@
         <v>42508.8077632736</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3579,15 +3397,11 @@
         <v>42508.8077632736</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3620,11 +3434,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3657,11 +3467,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3694,11 +3500,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3731,11 +3533,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3768,11 +3566,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3805,11 +3599,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3842,11 +3632,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3875,15 +3661,11 @@
         <v>42905.73983961599</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3912,15 +3694,11 @@
         <v>42905.73983961599</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3953,11 +3731,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3986,15 +3760,11 @@
         <v>42599.20713961599</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4023,15 +3793,11 @@
         <v>42570.01253961599</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4060,15 +3826,11 @@
         <v>42570.01253961599</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4097,15 +3859,11 @@
         <v>42367.19683961599</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4134,15 +3892,11 @@
         <v>42228.32133961598</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4175,11 +3929,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4212,11 +3962,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4249,11 +3995,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4286,11 +4028,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4323,11 +4061,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4360,11 +4094,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4397,11 +4127,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4434,11 +4160,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4471,11 +4193,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4508,11 +4226,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4545,11 +4259,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4582,11 +4292,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4619,11 +4325,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4656,11 +4358,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4693,11 +4391,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4730,11 +4424,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4767,11 +4457,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4804,11 +4490,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4841,11 +4523,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4878,11 +4556,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4915,11 +4589,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4952,11 +4622,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4989,11 +4655,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5026,11 +4688,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5063,11 +4721,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5100,11 +4754,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +4787,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5174,11 +4820,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5211,11 +4853,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5248,11 +4886,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5285,11 +4919,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5322,11 +4952,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5359,11 +4985,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5396,11 +5018,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5433,11 +5051,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5470,11 +5084,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5507,11 +5117,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5544,11 +5150,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5581,11 +5183,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5618,11 +5216,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5655,11 +5249,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5692,11 +5282,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5729,11 +5315,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5766,11 +5348,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5803,11 +5381,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5840,11 +5414,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5877,11 +5447,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5914,11 +5480,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5951,11 +5513,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5988,11 +5546,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6025,11 +5579,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6062,11 +5612,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6099,11 +5645,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6136,11 +5678,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6173,11 +5711,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6210,11 +5744,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6247,11 +5777,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6284,11 +5810,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6321,11 +5843,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +5876,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6395,11 +5909,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6432,11 +5942,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6469,11 +5975,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6506,11 +6008,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6543,11 +6041,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6580,11 +6074,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6617,11 +6107,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6654,11 +6140,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6691,11 +6173,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6728,11 +6206,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6765,11 +6239,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6802,11 +6272,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6839,11 +6305,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6876,11 +6338,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6913,11 +6371,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6950,11 +6404,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6987,11 +6437,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7024,11 +6470,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7061,11 +6503,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7098,11 +6536,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7135,11 +6569,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7172,11 +6602,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7209,11 +6635,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7246,11 +6668,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7283,11 +6701,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7320,11 +6734,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7357,11 +6767,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7394,11 +6800,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7431,11 +6833,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7468,11 +6866,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7505,11 +6899,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7542,11 +6932,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +6965,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7616,11 +6998,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7653,11 +7031,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7690,11 +7064,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7727,11 +7097,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7764,11 +7130,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7801,11 +7163,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7838,11 +7196,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7875,11 +7229,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7912,11 +7262,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7949,11 +7295,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7986,11 +7328,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8023,11 +7361,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8060,11 +7394,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8097,11 +7427,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8134,11 +7460,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8171,11 +7493,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8208,11 +7526,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8245,11 +7559,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8282,11 +7592,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8319,11 +7625,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8356,11 +7658,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8393,11 +7691,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8430,11 +7724,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8467,11 +7757,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8504,11 +7790,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8541,11 +7823,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8578,11 +7856,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8615,11 +7889,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8652,11 +7922,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8689,11 +7955,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8726,11 +7988,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8763,11 +8021,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +8054,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8837,11 +8087,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8874,11 +8120,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8911,11 +8153,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8948,11 +8186,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8985,11 +8219,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9022,11 +8252,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9059,11 +8285,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9092,15 +8314,11 @@
         <v>39640.62912069453</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9133,11 +8351,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9170,11 +8384,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9207,11 +8417,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9244,11 +8450,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9281,11 +8483,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9318,11 +8516,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9355,11 +8549,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9392,11 +8582,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9429,11 +8615,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9466,11 +8648,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9503,11 +8681,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9540,11 +8714,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9577,11 +8747,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9614,11 +8780,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9651,11 +8813,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9688,11 +8846,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9725,11 +8879,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9762,11 +8912,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9799,11 +8945,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9836,11 +8978,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9873,11 +9011,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9910,11 +9044,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9947,11 +9077,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9984,11 +9110,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +9143,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10058,11 +9176,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10095,11 +9209,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10132,11 +9242,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10169,11 +9275,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10206,11 +9308,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10243,11 +9341,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10280,11 +9374,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10317,11 +9407,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10354,11 +9440,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10391,11 +9473,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10428,11 +9506,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10465,11 +9539,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10502,11 +9572,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10539,11 +9605,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10576,11 +9638,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10613,11 +9671,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10650,11 +9704,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10687,11 +9737,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10724,11 +9770,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10761,11 +9803,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10798,11 +9836,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10835,11 +9869,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10872,11 +9902,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10909,11 +9935,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10946,11 +9968,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10983,11 +10001,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11020,11 +10034,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11057,11 +10067,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11094,11 +10100,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11131,11 +10133,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11168,11 +10166,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11205,11 +10199,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +10232,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11279,11 +10265,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11316,11 +10298,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11353,11 +10331,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11390,11 +10364,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11427,11 +10397,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11464,11 +10430,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11501,11 +10463,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11538,11 +10496,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11575,11 +10529,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11612,11 +10562,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11649,11 +10595,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11686,11 +10628,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11723,11 +10661,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11760,11 +10694,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11797,11 +10727,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11834,11 +10760,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11871,11 +10793,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11908,11 +10826,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11945,11 +10859,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11982,11 +10892,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12019,11 +10925,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12056,11 +10958,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12089,15 +10987,11 @@
         <v>39702.60926168889</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12130,11 +11024,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12167,11 +11057,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12204,11 +11090,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12241,11 +11123,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12278,11 +11156,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12315,11 +11189,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12352,11 +11222,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12389,11 +11255,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12426,11 +11288,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12463,11 +11321,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12500,11 +11354,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12537,11 +11387,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12574,11 +11420,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12611,11 +11453,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12648,11 +11486,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12685,11 +11519,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12722,11 +11552,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12759,11 +11585,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12796,11 +11618,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12833,11 +11651,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12870,11 +11684,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12907,11 +11717,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12944,11 +11750,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12981,11 +11783,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13018,11 +11816,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13055,11 +11849,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13092,11 +11882,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13129,11 +11915,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13166,11 +11948,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13203,11 +11981,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13240,11 +12014,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13277,11 +12047,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13314,11 +12080,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13351,11 +12113,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13388,11 +12146,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13425,11 +12179,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13462,11 +12212,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13499,11 +12245,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13536,11 +12278,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13573,11 +12311,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13610,11 +12344,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13647,11 +12377,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +12410,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13721,11 +12443,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13758,11 +12476,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13795,11 +12509,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13832,11 +12542,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13869,11 +12575,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13906,11 +12608,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13943,11 +12641,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13980,11 +12674,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14017,11 +12707,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14054,11 +12740,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14091,11 +12773,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14128,11 +12806,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14165,11 +12839,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14202,11 +12872,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14239,11 +12905,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14276,11 +12938,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14313,11 +12971,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14350,11 +13004,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14387,11 +13037,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14424,11 +13070,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14461,11 +13103,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14498,11 +13136,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14535,11 +13169,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14572,11 +13202,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14609,11 +13235,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14646,11 +13268,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14683,11 +13301,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14720,11 +13334,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14757,11 +13367,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14794,11 +13400,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14831,11 +13433,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14868,11 +13466,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +13499,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14942,11 +13532,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14979,11 +13565,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15016,11 +13598,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15053,11 +13631,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15090,11 +13664,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15127,11 +13697,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15164,11 +13730,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15197,15 +13759,11 @@
         <v>38644.11157473231</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15234,15 +13792,11 @@
         <v>38654.72227473231</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15271,15 +13825,11 @@
         <v>38949.38007473231</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15308,15 +13858,11 @@
         <v>39393.60397473231</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15345,15 +13891,11 @@
         <v>40250.07783929852</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15382,15 +13924,11 @@
         <v>41385.2573747323</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15419,15 +13957,11 @@
         <v>45056.95977473231</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15456,15 +13990,11 @@
         <v>43998.11327473231</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15493,15 +14023,11 @@
         <v>44431.73677527333</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15530,15 +14056,11 @@
         <v>45000.23607527334</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15567,15 +14089,11 @@
         <v>47218.73607527334</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15604,15 +14122,11 @@
         <v>48086.51337527334</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15641,15 +14155,11 @@
         <v>49553.39720856777</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15678,15 +14188,11 @@
         <v>48614.77284284058</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15715,15 +14221,11 @@
         <v>47087.60710582876</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15752,15 +14254,11 @@
         <v>47708.24161214793</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15789,15 +14287,11 @@
         <v>46351.39471214793</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15826,15 +14320,11 @@
         <v>46504.72181214793</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15863,15 +14353,11 @@
         <v>46504.72181214793</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15900,15 +14386,11 @@
         <v>47090.11991214793</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15937,15 +14419,11 @@
         <v>47494.14601214793</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15974,15 +14452,11 @@
         <v>47417.34471214793</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16015,11 +14489,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16052,11 +14522,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16089,11 +14555,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16126,11 +14588,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16163,11 +14621,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16200,11 +14654,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16237,11 +14687,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16274,11 +14720,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16311,11 +14753,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16344,16 +14782,14 @@
         <v>53664.17107441209</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="n">
+        <v>1</v>
+      </c>
       <c r="M431" t="inlineStr"/>
     </row>
     <row r="432">
@@ -16379,7 +14815,7 @@
         <v>52469.91137441209</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16412,7 +14848,7 @@
         <v>51176.72617441209</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16445,7 +14881,7 @@
         <v>50116.81367441209</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16478,7 +14914,7 @@
         <v>50826.92771803742</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16511,7 +14947,7 @@
         <v>52067.28368829918</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16544,7 +14980,7 @@
         <v>52340.86566276826</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16577,7 +15013,7 @@
         <v>51665.41977893335</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16610,7 +15046,7 @@
         <v>52236.52939509844</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16643,7 +15079,7 @@
         <v>52236.52939509844</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16676,7 +15112,7 @@
         <v>52897.04063630116</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16709,7 +15145,7 @@
         <v>52489.31523630115</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16742,7 +15178,7 @@
         <v>53403.25830209063</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16775,7 +15211,7 @@
         <v>54368.80130209063</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16808,7 +15244,7 @@
         <v>55151.23518359401</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16841,7 +15277,7 @@
         <v>56656.74901930829</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16874,7 +15310,7 @@
         <v>55535.40291930829</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17435,7 +15871,7 @@
         <v>50562.48311191667</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17468,7 +15904,7 @@
         <v>50541.27231191667</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17501,7 +15937,7 @@
         <v>50269.69441191667</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17534,7 +15970,7 @@
         <v>49857.75531191667</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17567,7 +16003,7 @@
         <v>49549.31361191667</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17600,7 +16036,7 @@
         <v>49615.62941191666</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17633,7 +16069,7 @@
         <v>49882.70191191667</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17666,7 +16102,7 @@
         <v>49048.70901191667</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17699,7 +16135,7 @@
         <v>49018.99321191667</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17732,7 +16168,7 @@
         <v>50041.51111191667</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17765,7 +16201,7 @@
         <v>48786.37481191667</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17798,7 +16234,7 @@
         <v>48620.14991191667</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17831,7 +16267,7 @@
         <v>48219.93521191667</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17864,7 +16300,7 @@
         <v>47165.49021191667</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17897,7 +16333,7 @@
         <v>47375.51551191667</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17930,7 +16366,7 @@
         <v>47700.94151191667</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18359,7 +16795,7 @@
         <v>45707.04196602757</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18392,7 +16828,7 @@
         <v>46117.26666602757</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18425,7 +16861,7 @@
         <v>46083.09716602757</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18458,7 +16894,7 @@
         <v>45875.28976602757</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18491,7 +16927,7 @@
         <v>45090.00526602757</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18524,7 +16960,7 @@
         <v>44970.01526602757</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18557,7 +16993,7 @@
         <v>44983.58946602757</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19778,7 +18214,7 @@
         <v>51214.92500159265</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19811,7 +18247,7 @@
         <v>51123.38130159265</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19844,7 +18280,7 @@
         <v>51831.32530159265</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19877,7 +18313,7 @@
         <v>51596.26970159265</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19910,7 +18346,7 @@
         <v>50960.1276101871</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19943,7 +18379,7 @@
         <v>50285.0124101871</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19976,7 +18412,7 @@
         <v>50401.6587101871</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20009,7 +18445,7 @@
         <v>50573.92241018711</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20042,7 +18478,7 @@
         <v>50573.92241018711</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20075,7 +18511,7 @@
         <v>50566.49811018711</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20108,7 +18544,7 @@
         <v>50307.49121018711</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20141,7 +18577,7 @@
         <v>50349.73609549177</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20174,7 +18610,7 @@
         <v>50318.71889549177</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20207,7 +18643,7 @@
         <v>50433.44404971079</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20240,7 +18676,7 @@
         <v>50327.71674971079</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20273,7 +18709,7 @@
         <v>50327.71674971079</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20306,7 +18742,7 @@
         <v>50327.7267497108</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20339,7 +18775,7 @@
         <v>50422.4325747552</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20966,7 +19402,7 @@
         <v>50030.90087475521</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20999,7 +19435,7 @@
         <v>49955.27817475521</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21032,7 +19468,7 @@
         <v>50145.60067475521</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21065,7 +19501,7 @@
         <v>50124.58957475521</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21098,7 +19534,7 @@
         <v>50187.98207475521</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -25498,6 +23934,6 @@
       <c r="M708" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest REP.xlsx
+++ b/BackTest/2019-10-29 BackTest REP.xlsx
@@ -757,9 +757,11 @@
         <v>38029.61541609006</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10090</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -833,9 +835,11 @@
         <v>38034.61541609006</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10060</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -870,11 +874,9 @@
         <v>38034.61541609006</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -946,11 +948,9 @@
         <v>38034.61541609006</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -1910,16 +1910,18 @@
         <v>41432.13657842871</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
       <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -1945,11 +1947,15 @@
         <v>41878.64717842871</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1978,11 +1984,15 @@
         <v>41878.64717842871</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2011,11 +2021,15 @@
         <v>42962.84307842871</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2044,11 +2058,15 @@
         <v>42552.36327842871</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2077,11 +2095,15 @@
         <v>42840.99737842871</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2110,11 +2132,15 @@
         <v>42205.03467842871</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2143,11 +2169,15 @@
         <v>41938.00877842871</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2176,11 +2206,15 @@
         <v>41716.79647842871</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2209,11 +2243,15 @@
         <v>41716.79647842871</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2242,11 +2280,15 @@
         <v>41908.46137842871</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2275,11 +2317,15 @@
         <v>42279.22316310161</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2308,11 +2354,15 @@
         <v>42279.22316310161</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2341,11 +2391,15 @@
         <v>42279.22316310161</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2374,11 +2428,15 @@
         <v>42279.22316310161</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2407,11 +2465,15 @@
         <v>42259.57436310161</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2440,11 +2502,15 @@
         <v>41871.90636310161</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2473,11 +2539,15 @@
         <v>42029.29026310161</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2506,11 +2576,15 @@
         <v>42018.87146310161</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2539,11 +2613,15 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2572,11 +2650,15 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2605,11 +2687,15 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2638,11 +2724,15 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2671,11 +2761,15 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2704,11 +2798,15 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2737,11 +2835,15 @@
         <v>42183.29336310161</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2770,11 +2872,15 @@
         <v>42448.62526310161</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2803,11 +2909,15 @@
         <v>43093.08545224487</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2836,11 +2946,15 @@
         <v>44061.94595224487</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2869,11 +2983,15 @@
         <v>44309.81805224487</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2902,11 +3020,15 @@
         <v>44182.30995224488</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2935,11 +3057,15 @@
         <v>44182.30995224488</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2968,11 +3094,15 @@
         <v>44182.30995224488</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3001,11 +3131,15 @@
         <v>44305.69255224487</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3034,11 +3168,15 @@
         <v>44305.69255224487</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3067,11 +3205,15 @@
         <v>44300.39955224487</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3100,11 +3242,15 @@
         <v>44308.13485224488</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3133,11 +3279,15 @@
         <v>44916.60385224487</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3166,11 +3316,15 @@
         <v>44527.22225224487</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3199,11 +3353,15 @@
         <v>42466.24155224487</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3232,11 +3390,15 @@
         <v>42602.46665224488</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3265,11 +3427,15 @@
         <v>42405.27635224487</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3298,11 +3464,15 @@
         <v>42462.19625224487</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3331,11 +3501,15 @@
         <v>42288.4295632736</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3364,11 +3538,15 @@
         <v>42508.8077632736</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3397,11 +3575,15 @@
         <v>42508.8077632736</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3434,7 +3616,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3467,7 +3653,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3500,7 +3690,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3533,7 +3727,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3566,7 +3764,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3599,7 +3801,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3632,7 +3838,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3661,11 +3871,15 @@
         <v>42905.73983961599</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3694,11 +3908,15 @@
         <v>42905.73983961599</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3731,7 +3949,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3760,11 +3982,15 @@
         <v>42599.20713961599</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3793,11 +4019,15 @@
         <v>42570.01253961599</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3826,11 +4056,15 @@
         <v>42570.01253961599</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3859,11 +4093,15 @@
         <v>42367.19683961599</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3892,11 +4130,15 @@
         <v>42228.32133961598</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3929,7 +4171,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3962,7 +4208,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3995,7 +4245,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4028,7 +4282,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4061,7 +4319,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4094,7 +4356,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4127,7 +4393,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4160,7 +4430,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4193,7 +4467,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4226,7 +4504,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4259,7 +4541,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4292,7 +4578,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4325,7 +4615,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4358,7 +4652,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4391,7 +4689,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4424,7 +4726,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4457,7 +4763,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4490,7 +4800,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4523,7 +4837,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4556,7 +4874,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4589,7 +4911,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4622,7 +4948,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4655,7 +4985,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4688,7 +5022,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4721,7 +5059,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4754,7 +5096,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4787,7 +5133,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4820,7 +5170,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4853,7 +5207,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4886,7 +5244,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4919,7 +5281,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4952,7 +5318,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4985,7 +5355,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5018,7 +5392,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5051,7 +5429,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5084,7 +5466,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5117,7 +5503,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5150,7 +5540,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5183,7 +5577,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5216,7 +5614,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5249,7 +5651,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5282,7 +5688,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5315,7 +5725,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5348,7 +5762,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5381,7 +5799,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5414,7 +5836,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5447,7 +5873,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5480,7 +5910,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5513,7 +5947,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5546,7 +5984,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5579,7 +6021,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5612,7 +6058,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5645,7 +6095,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5678,7 +6132,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5711,7 +6169,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5744,7 +6206,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5777,7 +6243,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5810,7 +6280,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5843,7 +6317,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5876,7 +6354,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5909,7 +6391,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5942,7 +6428,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5975,7 +6465,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6008,7 +6502,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6041,7 +6539,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6074,7 +6576,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6107,7 +6613,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6140,7 +6650,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6173,7 +6687,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6206,7 +6724,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6239,7 +6761,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6272,7 +6798,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6305,7 +6835,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6338,7 +6872,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6371,7 +6909,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6404,7 +6946,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6437,7 +6983,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6470,7 +7020,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6503,7 +7057,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6536,7 +7094,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6569,7 +7131,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6602,7 +7168,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6635,7 +7205,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6668,7 +7242,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6701,7 +7279,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6734,7 +7316,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6767,7 +7353,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6800,7 +7390,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6833,7 +7427,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6866,7 +7464,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6899,7 +7501,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6932,7 +7538,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6965,7 +7575,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6998,7 +7612,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7031,7 +7649,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7064,7 +7686,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7097,7 +7723,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7130,7 +7760,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7163,7 +7797,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7196,7 +7834,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7229,7 +7871,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7262,7 +7908,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7295,7 +7945,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7328,7 +7982,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7361,7 +8019,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7394,7 +8056,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7427,7 +8093,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7460,7 +8130,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7493,7 +8167,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7526,7 +8204,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7559,7 +8241,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7592,7 +8278,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7625,7 +8315,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7658,7 +8352,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7691,7 +8389,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7724,7 +8426,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7757,7 +8463,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7790,7 +8500,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7823,7 +8537,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7856,7 +8574,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7889,7 +8611,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7922,7 +8648,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7955,7 +8685,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7988,7 +8722,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8021,7 +8759,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8054,7 +8796,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8087,7 +8833,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8120,7 +8870,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8153,7 +8907,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8186,7 +8944,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8219,7 +8981,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8252,7 +9018,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8285,7 +9055,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8314,11 +9088,15 @@
         <v>39640.62912069453</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8351,7 +9129,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8384,7 +9166,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8417,7 +9203,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8450,7 +9240,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8483,7 +9277,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8516,7 +9314,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8549,7 +9351,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8582,7 +9388,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8615,7 +9425,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8648,7 +9462,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8681,7 +9499,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8714,7 +9536,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8747,7 +9573,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8780,7 +9610,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8813,7 +9647,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8846,7 +9684,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8879,7 +9721,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8912,7 +9758,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8945,7 +9795,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8978,7 +9832,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9011,7 +9869,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9044,7 +9906,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9077,7 +9943,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9110,7 +9980,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9143,7 +10017,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9176,7 +10054,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9209,7 +10091,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9242,7 +10128,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9275,7 +10165,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9308,7 +10202,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9341,7 +10239,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9374,7 +10276,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9407,7 +10313,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9440,7 +10350,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9473,7 +10387,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9506,7 +10424,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9539,7 +10461,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9572,7 +10498,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9605,7 +10535,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9638,7 +10572,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9671,7 +10609,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9704,7 +10646,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9737,7 +10683,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9770,7 +10720,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9803,7 +10757,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9836,7 +10794,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9869,7 +10831,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9902,7 +10868,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9935,7 +10905,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9968,7 +10942,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10001,7 +10979,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10034,7 +11016,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10067,7 +11053,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10100,7 +11090,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10133,7 +11127,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10166,7 +11164,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10199,7 +11201,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10232,7 +11238,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10265,7 +11275,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10298,7 +11312,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10331,7 +11349,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10364,7 +11386,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10397,7 +11423,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10430,7 +11460,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10463,7 +11497,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10496,7 +11534,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10529,7 +11571,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10562,7 +11608,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10595,7 +11645,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10628,7 +11682,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10661,7 +11719,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10694,7 +11756,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10727,7 +11793,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10760,7 +11830,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10793,7 +11867,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10826,7 +11904,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10859,7 +11941,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10892,7 +11978,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10925,7 +12015,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10958,7 +12052,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10987,11 +12085,15 @@
         <v>39702.60926168889</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11024,7 +12126,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11057,7 +12163,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11090,7 +12200,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11123,7 +12237,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11156,7 +12274,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11189,7 +12311,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11222,7 +12348,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11255,7 +12385,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11288,7 +12422,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11321,7 +12459,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11354,7 +12496,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11387,7 +12533,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11420,7 +12570,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11453,7 +12607,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11486,7 +12644,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11519,7 +12681,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11552,7 +12718,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11585,7 +12755,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11618,7 +12792,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11651,7 +12829,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11684,7 +12866,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11717,7 +12903,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11750,7 +12940,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11783,7 +12977,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11816,7 +13014,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11849,7 +13051,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11882,7 +13088,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11915,7 +13125,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11948,7 +13162,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11981,7 +13199,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12014,7 +13236,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12047,7 +13273,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12080,7 +13310,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12113,7 +13347,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12146,7 +13384,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12179,7 +13421,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12212,7 +13458,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12245,7 +13495,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12278,7 +13532,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12311,7 +13569,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12344,7 +13606,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12377,7 +13643,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12410,7 +13680,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12443,7 +13717,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12476,7 +13754,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12509,7 +13791,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12542,7 +13828,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12575,7 +13865,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12608,7 +13902,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12641,7 +13939,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12674,7 +13976,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12707,7 +14013,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12740,7 +14050,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12773,7 +14087,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12806,7 +14124,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12839,7 +14161,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12872,7 +14198,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12905,7 +14235,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12938,7 +14272,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12971,7 +14309,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13004,7 +14346,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13037,7 +14383,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13070,7 +14420,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13103,7 +14457,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13136,7 +14494,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13169,7 +14531,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13202,7 +14568,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13235,7 +14605,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13268,7 +14642,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13301,7 +14679,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13334,7 +14716,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13367,7 +14753,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13400,7 +14790,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13433,7 +14827,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13466,7 +14864,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13499,7 +14901,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13532,7 +14938,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13565,7 +14975,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13598,7 +15012,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13631,7 +15049,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13664,7 +15086,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13697,7 +15123,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13730,7 +15160,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13759,11 +15193,15 @@
         <v>38644.11157473231</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13792,11 +15230,15 @@
         <v>38654.72227473231</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13825,11 +15267,15 @@
         <v>38949.38007473231</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13858,11 +15304,15 @@
         <v>39393.60397473231</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13891,11 +15341,15 @@
         <v>40250.07783929852</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13924,11 +15378,15 @@
         <v>41385.2573747323</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13957,11 +15415,15 @@
         <v>45056.95977473231</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13990,11 +15452,15 @@
         <v>43998.11327473231</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14023,11 +15489,15 @@
         <v>44431.73677527333</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14056,11 +15526,15 @@
         <v>45000.23607527334</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14089,11 +15563,15 @@
         <v>47218.73607527334</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14122,11 +15600,15 @@
         <v>48086.51337527334</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14155,11 +15637,15 @@
         <v>49553.39720856777</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14188,11 +15674,15 @@
         <v>48614.77284284058</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14221,11 +15711,15 @@
         <v>47087.60710582876</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14254,11 +15748,15 @@
         <v>47708.24161214793</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14287,11 +15785,15 @@
         <v>46351.39471214793</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14320,11 +15822,15 @@
         <v>46504.72181214793</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14353,11 +15859,15 @@
         <v>46504.72181214793</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14386,11 +15896,15 @@
         <v>47090.11991214793</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14419,11 +15933,15 @@
         <v>47494.14601214793</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14452,11 +15970,15 @@
         <v>47417.34471214793</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14489,7 +16011,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14522,7 +16048,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14555,7 +16085,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14588,7 +16122,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14621,7 +16159,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14654,7 +16196,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14683,14 +16229,16 @@
         <v>53457.35702678844</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
-      <c r="L428" t="n">
-        <v>1</v>
-      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L428" t="inlineStr"/>
       <c r="M428" t="inlineStr"/>
     </row>
     <row r="429">
@@ -14749,7 +16297,7 @@
         <v>53941.82267644945</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14782,7 +16330,7 @@
         <v>53664.17107441209</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14815,7 +16363,7 @@
         <v>52469.91137441209</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14848,7 +16396,7 @@
         <v>51176.72617441209</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14881,7 +16429,7 @@
         <v>50116.81367441209</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14914,7 +16462,7 @@
         <v>50826.92771803742</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14947,7 +16495,7 @@
         <v>52067.28368829918</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15013,7 +16561,7 @@
         <v>51665.41977893335</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15046,7 +16594,7 @@
         <v>52236.52939509844</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15079,7 +16627,7 @@
         <v>52236.52939509844</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15112,7 +16660,7 @@
         <v>52897.04063630116</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15145,7 +16693,7 @@
         <v>52489.31523630115</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15178,7 +16726,7 @@
         <v>53403.25830209063</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15211,7 +16759,7 @@
         <v>54368.80130209063</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15244,7 +16792,7 @@
         <v>55151.23518359401</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15277,7 +16825,7 @@
         <v>56656.74901930829</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15310,7 +16858,7 @@
         <v>55535.40291930829</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15343,7 +16891,7 @@
         <v>55689.45841930829</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15376,7 +16924,7 @@
         <v>53903.57425623007</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15409,7 +16957,7 @@
         <v>52817.89975623007</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15442,7 +16990,7 @@
         <v>52817.89975623007</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15475,7 +17023,7 @@
         <v>53286.07875623007</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15508,7 +17056,7 @@
         <v>52898.67855580884</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15541,7 +17089,7 @@
         <v>53552.46781191667</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15574,7 +17122,7 @@
         <v>53552.46781191667</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15607,7 +17155,7 @@
         <v>52955.81631191667</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15640,7 +17188,7 @@
         <v>52872.59651191667</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15673,7 +17221,7 @@
         <v>52181.00531191667</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15706,7 +17254,7 @@
         <v>51895.57871191667</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
